--- a/examples/bmac/result-realhardware/a-2/time-multihop.xlsx
+++ b/examples/bmac/result-realhardware/a-2/time-multihop.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Github\thesis-mixim\examples\bmac\result-realhardware\a-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A014DDA0-DB8D-4377-8351-1CE501A5D62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C051C4-F6F8-4EB8-997C-1BFB14ADEAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57302447-A21C-45CA-A23C-2EBD4AA63AA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{57302447-A21C-45CA-A23C-2EBD4AA63AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -326,7 +327,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD15-4FFF-916A-35988FF36A6D}"/>
+              <c16:uniqueId val="{00000001-CEBC-4D9F-A610-2D8D1C26B5BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -425,7 +426,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FCF5-4E7C-A28D-5BEDE6B00D2D}"/>
+              <c16:uniqueId val="{00000002-CEBC-4D9F-A610-2D8D1C26B5BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -492,6 +493,7 @@
         <c:axId val="524654888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1182,27 +1184,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E41045-5E43-4380-1D7E-2F01BF267658}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9615688D-7263-4153-97F3-4B527F36D041}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1530,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEEA094-5FCC-497D-87E4-0D3DB2AEEF32}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,9 +1625,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE3112-C48D-4BF8-9CDF-DEEAA66367D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>